--- a/data/pca/factorExposure/factorExposure_2012-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-22.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01764409316526956</v>
+        <v>-0.01670217354430733</v>
       </c>
       <c r="C2">
-        <v>0.03717869976197556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02945443008154977</v>
+      </c>
+      <c r="D2">
+        <v>-0.0006773653138430174</v>
+      </c>
+      <c r="E2">
+        <v>0.009467561345007819</v>
+      </c>
+      <c r="F2">
+        <v>-0.009468222100773379</v>
+      </c>
+      <c r="G2">
+        <v>-0.008074459513868633</v>
+      </c>
+      <c r="H2">
+        <v>0.05702928173997242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0742145638479948</v>
+        <v>-0.08802382562673527</v>
       </c>
       <c r="C4">
-        <v>0.0545836039436594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03893740372336435</v>
+      </c>
+      <c r="D4">
+        <v>0.06496277218996713</v>
+      </c>
+      <c r="E4">
+        <v>0.01695829871717597</v>
+      </c>
+      <c r="F4">
+        <v>-0.03037892863239673</v>
+      </c>
+      <c r="G4">
+        <v>-0.00914628483934846</v>
+      </c>
+      <c r="H4">
+        <v>-0.04084290521715401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1084919822042457</v>
+        <v>-0.1197949351615719</v>
       </c>
       <c r="C6">
-        <v>0.05786739182751451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03491674666419715</v>
+      </c>
+      <c r="D6">
+        <v>0.007675558470233449</v>
+      </c>
+      <c r="E6">
+        <v>-0.004960058492323166</v>
+      </c>
+      <c r="F6">
+        <v>-0.05841442316920772</v>
+      </c>
+      <c r="G6">
+        <v>-0.02556559039908166</v>
+      </c>
+      <c r="H6">
+        <v>0.1101451545731905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04865367884462153</v>
+        <v>-0.06409918382436733</v>
       </c>
       <c r="C7">
-        <v>0.02643451466709051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01898355347265991</v>
+      </c>
+      <c r="D7">
+        <v>0.04623907491551781</v>
+      </c>
+      <c r="E7">
+        <v>0.04005046146978836</v>
+      </c>
+      <c r="F7">
+        <v>-0.03190840679547881</v>
+      </c>
+      <c r="G7">
+        <v>0.04047477591465923</v>
+      </c>
+      <c r="H7">
+        <v>-0.01479329907457596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03715671744848172</v>
+        <v>-0.04065514744688837</v>
       </c>
       <c r="C8">
-        <v>0.01191906546283365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007421203403931233</v>
+      </c>
+      <c r="D8">
+        <v>0.02111635964960835</v>
+      </c>
+      <c r="E8">
+        <v>0.03594303270944939</v>
+      </c>
+      <c r="F8">
+        <v>-0.04780083675671182</v>
+      </c>
+      <c r="G8">
+        <v>-0.04773583956914124</v>
+      </c>
+      <c r="H8">
+        <v>0.003072632816854994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06689181225975553</v>
+        <v>-0.0792700757448865</v>
       </c>
       <c r="C9">
-        <v>0.04465744849117558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02988494086985596</v>
+      </c>
+      <c r="D9">
+        <v>0.06340941562633132</v>
+      </c>
+      <c r="E9">
+        <v>0.03922201647690394</v>
+      </c>
+      <c r="F9">
+        <v>-0.0302750975858771</v>
+      </c>
+      <c r="G9">
+        <v>-0.008161014301862423</v>
+      </c>
+      <c r="H9">
+        <v>-0.05063326605097741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02815701357412913</v>
+        <v>-0.03434047374399501</v>
       </c>
       <c r="C10">
-        <v>0.03374109498919149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04057187125173626</v>
+      </c>
+      <c r="D10">
+        <v>-0.1716949657165348</v>
+      </c>
+      <c r="E10">
+        <v>0.05065034772954932</v>
+      </c>
+      <c r="F10">
+        <v>-0.04426266548119578</v>
+      </c>
+      <c r="G10">
+        <v>0.04330241037448709</v>
+      </c>
+      <c r="H10">
+        <v>0.03794382334524329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06992439696327805</v>
+        <v>-0.0764654576953466</v>
       </c>
       <c r="C11">
-        <v>0.0480991590258868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02834477688563689</v>
+      </c>
+      <c r="D11">
+        <v>0.06222362194101436</v>
+      </c>
+      <c r="E11">
+        <v>-8.327228455386897e-06</v>
+      </c>
+      <c r="F11">
+        <v>-0.02650393680783581</v>
+      </c>
+      <c r="G11">
+        <v>0.004646231042750877</v>
+      </c>
+      <c r="H11">
+        <v>-0.09535336208368095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05762980993458046</v>
+        <v>-0.06739296157960196</v>
       </c>
       <c r="C12">
-        <v>0.05165371662373686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03612452362206491</v>
+      </c>
+      <c r="D12">
+        <v>0.04803134099656106</v>
+      </c>
+      <c r="E12">
+        <v>0.01589589790127605</v>
+      </c>
+      <c r="F12">
+        <v>-0.01941591972418808</v>
+      </c>
+      <c r="G12">
+        <v>-0.0003157523981413957</v>
+      </c>
+      <c r="H12">
+        <v>-0.05275307514357155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0597182913474755</v>
+        <v>-0.06518149707221713</v>
       </c>
       <c r="C13">
-        <v>0.04135084935223406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02578628540056816</v>
+      </c>
+      <c r="D13">
+        <v>0.04227550427671864</v>
+      </c>
+      <c r="E13">
+        <v>0.01546977260344829</v>
+      </c>
+      <c r="F13">
+        <v>0.0001714237159055723</v>
+      </c>
+      <c r="G13">
+        <v>0.00892751838598602</v>
+      </c>
+      <c r="H13">
+        <v>-0.04383408065932277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03245081358564593</v>
+        <v>-0.04103982503402606</v>
       </c>
       <c r="C14">
-        <v>0.0322547267801445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02811957334608456</v>
+      </c>
+      <c r="D14">
+        <v>0.004917002247748564</v>
+      </c>
+      <c r="E14">
+        <v>0.03274123917534964</v>
+      </c>
+      <c r="F14">
+        <v>-0.01042124366271933</v>
+      </c>
+      <c r="G14">
+        <v>-0.01129937953045219</v>
+      </c>
+      <c r="H14">
+        <v>-0.05419552080845223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03840207983025477</v>
+        <v>-0.03954853075276613</v>
       </c>
       <c r="C15">
-        <v>0.0098983633733906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.00262178634186613</v>
+      </c>
+      <c r="D15">
+        <v>0.003956635236907647</v>
+      </c>
+      <c r="E15">
+        <v>0.04128251926995359</v>
+      </c>
+      <c r="F15">
+        <v>0.007344212847964392</v>
+      </c>
+      <c r="G15">
+        <v>-0.02749104798225773</v>
+      </c>
+      <c r="H15">
+        <v>-0.03499227355783213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06077733289564653</v>
+        <v>-0.07051113903741352</v>
       </c>
       <c r="C16">
-        <v>0.0433540311206879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02824582252569434</v>
+      </c>
+      <c r="D16">
+        <v>0.06226530015360773</v>
+      </c>
+      <c r="E16">
+        <v>0.008734655742323228</v>
+      </c>
+      <c r="F16">
+        <v>-0.02350336921071252</v>
+      </c>
+      <c r="G16">
+        <v>0.003928325518290262</v>
+      </c>
+      <c r="H16">
+        <v>-0.05999785721376162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06380251862600658</v>
+        <v>-0.06336230231621451</v>
       </c>
       <c r="C20">
-        <v>0.03294544146426336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01421173999296117</v>
+      </c>
+      <c r="D20">
+        <v>0.03945678970117344</v>
+      </c>
+      <c r="E20">
+        <v>0.03529989075825943</v>
+      </c>
+      <c r="F20">
+        <v>-0.0162505035272223</v>
+      </c>
+      <c r="G20">
+        <v>-0.01194183236852203</v>
+      </c>
+      <c r="H20">
+        <v>-0.04665906400192696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02316068606102</v>
+        <v>-0.02455357181750726</v>
       </c>
       <c r="C21">
-        <v>-0.002877571115969294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009486804004347956</v>
+      </c>
+      <c r="D21">
+        <v>0.02755091358196451</v>
+      </c>
+      <c r="E21">
+        <v>0.04107795790227815</v>
+      </c>
+      <c r="F21">
+        <v>0.01478270636616228</v>
+      </c>
+      <c r="G21">
+        <v>-0.009489705180779393</v>
+      </c>
+      <c r="H21">
+        <v>0.05055569614732834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07643924618158836</v>
+        <v>-0.07221183322651663</v>
       </c>
       <c r="C22">
-        <v>0.05872044186437197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0375907576145315</v>
+      </c>
+      <c r="D22">
+        <v>0.06435631795464984</v>
+      </c>
+      <c r="E22">
+        <v>0.5603693802561945</v>
+      </c>
+      <c r="F22">
+        <v>0.2538734316304743</v>
+      </c>
+      <c r="G22">
+        <v>0.05749879237028149</v>
+      </c>
+      <c r="H22">
+        <v>0.1650540408715621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07742419353900323</v>
+        <v>-0.07284631918612058</v>
       </c>
       <c r="C23">
-        <v>0.05764197547688968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03629095776273529</v>
+      </c>
+      <c r="D23">
+        <v>0.0652508339912862</v>
+      </c>
+      <c r="E23">
+        <v>0.5598501881054923</v>
+      </c>
+      <c r="F23">
+        <v>0.2524574318829642</v>
+      </c>
+      <c r="G23">
+        <v>0.05584309227718952</v>
+      </c>
+      <c r="H23">
+        <v>0.1601262529074671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07107675273956851</v>
+        <v>-0.08025848942260995</v>
       </c>
       <c r="C24">
-        <v>0.05194621357498065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03396201246222284</v>
+      </c>
+      <c r="D24">
+        <v>0.05836743183265459</v>
+      </c>
+      <c r="E24">
+        <v>0.01925299110816391</v>
+      </c>
+      <c r="F24">
+        <v>-0.03403305385515697</v>
+      </c>
+      <c r="G24">
+        <v>-0.005841836336889119</v>
+      </c>
+      <c r="H24">
+        <v>-0.06663360216500568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07053218300542646</v>
+        <v>-0.07768014344653022</v>
       </c>
       <c r="C25">
-        <v>0.05760174303577782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03875118811197195</v>
+      </c>
+      <c r="D25">
+        <v>0.051002548725057</v>
+      </c>
+      <c r="E25">
+        <v>0.02194693303756045</v>
+      </c>
+      <c r="F25">
+        <v>-0.02615880147392947</v>
+      </c>
+      <c r="G25">
+        <v>-0.01812771088950052</v>
+      </c>
+      <c r="H25">
+        <v>-0.06510412839035801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04443366798604217</v>
+        <v>-0.04757184157034838</v>
       </c>
       <c r="C26">
-        <v>0.01023560394657118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0020961872491285</v>
+      </c>
+      <c r="D26">
+        <v>0.01777684743729333</v>
+      </c>
+      <c r="E26">
+        <v>0.0532142495144639</v>
+      </c>
+      <c r="F26">
+        <v>-0.01816263064442005</v>
+      </c>
+      <c r="G26">
+        <v>0.007546388710728835</v>
+      </c>
+      <c r="H26">
+        <v>-0.05831735561231111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05088605020446526</v>
+        <v>-0.06169716540810617</v>
       </c>
       <c r="C28">
-        <v>0.07338446026898331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08125079899060758</v>
+      </c>
+      <c r="D28">
+        <v>-0.3083501209747198</v>
+      </c>
+      <c r="E28">
+        <v>0.02743318331712009</v>
+      </c>
+      <c r="F28">
+        <v>-0.05712201321706404</v>
+      </c>
+      <c r="G28">
+        <v>-0.02920331894819476</v>
+      </c>
+      <c r="H28">
+        <v>0.04523655195557406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03965067269004441</v>
+        <v>-0.04785451341926734</v>
       </c>
       <c r="C29">
-        <v>0.03095479566329375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02537565113109588</v>
+      </c>
+      <c r="D29">
+        <v>0.005556265121270632</v>
+      </c>
+      <c r="E29">
+        <v>0.05769219016890514</v>
+      </c>
+      <c r="F29">
+        <v>0.003435879974307113</v>
+      </c>
+      <c r="G29">
+        <v>0.005675399757008072</v>
+      </c>
+      <c r="H29">
+        <v>-0.07898721688442688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1271294108916021</v>
+        <v>-0.1328082699020337</v>
       </c>
       <c r="C30">
-        <v>0.09682328109849558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0649766465498543</v>
+      </c>
+      <c r="D30">
+        <v>0.06868923090475997</v>
+      </c>
+      <c r="E30">
+        <v>0.08450711168935661</v>
+      </c>
+      <c r="F30">
+        <v>0.02419697134607797</v>
+      </c>
+      <c r="G30">
+        <v>-0.06995801295713189</v>
+      </c>
+      <c r="H30">
+        <v>0.0428932842554321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04248076062296467</v>
+        <v>-0.04885276399489135</v>
       </c>
       <c r="C31">
-        <v>0.02089363184689786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01283140887805896</v>
+      </c>
+      <c r="D31">
+        <v>0.02439666716464703</v>
+      </c>
+      <c r="E31">
+        <v>0.03126628693986237</v>
+      </c>
+      <c r="F31">
+        <v>-0.008659206645432398</v>
+      </c>
+      <c r="G31">
+        <v>0.02410530512902799</v>
+      </c>
+      <c r="H31">
+        <v>-0.06444923547542201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03562578138691121</v>
+        <v>-0.03769204579348389</v>
       </c>
       <c r="C32">
-        <v>0.02260442635436045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01634479654024599</v>
+      </c>
+      <c r="D32">
+        <v>0.01161126039271001</v>
+      </c>
+      <c r="E32">
+        <v>0.06732591964863607</v>
+      </c>
+      <c r="F32">
+        <v>0.02022574681984173</v>
+      </c>
+      <c r="G32">
+        <v>-0.03235970024517703</v>
+      </c>
+      <c r="H32">
+        <v>-0.0699348867486342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08209711635006813</v>
+        <v>-0.09553697406274098</v>
       </c>
       <c r="C33">
-        <v>0.04550565000532344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02749956701063153</v>
+      </c>
+      <c r="D33">
+        <v>0.0490592611224025</v>
+      </c>
+      <c r="E33">
+        <v>0.01574478161240493</v>
+      </c>
+      <c r="F33">
+        <v>-5.497754457401024e-05</v>
+      </c>
+      <c r="G33">
+        <v>0.009420167953823238</v>
+      </c>
+      <c r="H33">
+        <v>-0.07057337531819842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0566100449164343</v>
+        <v>-0.06228441166662475</v>
       </c>
       <c r="C34">
-        <v>0.02952038871380733</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.014024015192817</v>
+      </c>
+      <c r="D34">
+        <v>0.05329898732472105</v>
+      </c>
+      <c r="E34">
+        <v>0.01142351396932333</v>
+      </c>
+      <c r="F34">
+        <v>-0.01746343902186688</v>
+      </c>
+      <c r="G34">
+        <v>-0.005540809244155651</v>
+      </c>
+      <c r="H34">
+        <v>-0.0595030784608631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03669311137901288</v>
+        <v>-0.04014442695216669</v>
       </c>
       <c r="C35">
-        <v>0.008149270635475863</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002857724542980089</v>
+      </c>
+      <c r="D35">
+        <v>0.007266421192120687</v>
+      </c>
+      <c r="E35">
+        <v>0.01962931091026751</v>
+      </c>
+      <c r="F35">
+        <v>0.01984010646946541</v>
+      </c>
+      <c r="G35">
+        <v>0.01224325718249473</v>
+      </c>
+      <c r="H35">
+        <v>-0.02177278763569089</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02041575098072687</v>
+        <v>-0.02729286733130385</v>
       </c>
       <c r="C36">
-        <v>0.01753413182490587</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0137892904960948</v>
+      </c>
+      <c r="D36">
+        <v>0.01177971311086393</v>
+      </c>
+      <c r="E36">
+        <v>0.04589400678765456</v>
+      </c>
+      <c r="F36">
+        <v>-0.01174261965614059</v>
+      </c>
+      <c r="G36">
+        <v>0.009489230039171744</v>
+      </c>
+      <c r="H36">
+        <v>-0.04402296629523357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03960075263789069</v>
+        <v>-0.04409750494732669</v>
       </c>
       <c r="C38">
-        <v>0.002937064876081702</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.00241281358539037</v>
+      </c>
+      <c r="D38">
+        <v>0.01556486824160914</v>
+      </c>
+      <c r="E38">
+        <v>0.05502874623387558</v>
+      </c>
+      <c r="F38">
+        <v>0.01763613010482422</v>
+      </c>
+      <c r="G38">
+        <v>-0.01312205241515383</v>
+      </c>
+      <c r="H38">
+        <v>-0.02590938650969992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08950341119612532</v>
+        <v>-0.1023992651877455</v>
       </c>
       <c r="C39">
-        <v>0.0723556487476385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05044639720052114</v>
+      </c>
+      <c r="D39">
+        <v>0.0653556374437248</v>
+      </c>
+      <c r="E39">
+        <v>0.0020751366731788</v>
+      </c>
+      <c r="F39">
+        <v>-0.006513652299119753</v>
+      </c>
+      <c r="G39">
+        <v>-0.03395045385288718</v>
+      </c>
+      <c r="H39">
+        <v>-0.06244657943779326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07406120232735237</v>
+        <v>-0.07204962322722767</v>
       </c>
       <c r="C40">
-        <v>0.04069384986367885</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01960116850384345</v>
+      </c>
+      <c r="D40">
+        <v>0.01027530523582772</v>
+      </c>
+      <c r="E40">
+        <v>0.01680147821722841</v>
+      </c>
+      <c r="F40">
+        <v>0.05578695084421204</v>
+      </c>
+      <c r="G40">
+        <v>-0.03853655372098198</v>
+      </c>
+      <c r="H40">
+        <v>0.0950082632501099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.040473201077129</v>
+        <v>-0.04359404390192711</v>
       </c>
       <c r="C41">
-        <v>0.006363670437010023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001174276040001317</v>
+      </c>
+      <c r="D41">
+        <v>0.03461683764450927</v>
+      </c>
+      <c r="E41">
+        <v>0.003584398563749157</v>
+      </c>
+      <c r="F41">
+        <v>0.01789421800678206</v>
+      </c>
+      <c r="G41">
+        <v>-0.01038521656837232</v>
+      </c>
+      <c r="H41">
+        <v>-0.03385136418402061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04685234479062539</v>
+        <v>-0.05759566318431969</v>
       </c>
       <c r="C43">
-        <v>0.02593953549572405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01733262966470307</v>
+      </c>
+      <c r="D43">
+        <v>0.02482225666229996</v>
+      </c>
+      <c r="E43">
+        <v>0.02081162961091624</v>
+      </c>
+      <c r="F43">
+        <v>-0.009522219984233769</v>
+      </c>
+      <c r="G43">
+        <v>0.01431129093327567</v>
+      </c>
+      <c r="H43">
+        <v>-0.05486945553913543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09338011617332652</v>
+        <v>-0.09461011057623542</v>
       </c>
       <c r="C44">
-        <v>0.09441601528942224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06508418595618039</v>
+      </c>
+      <c r="D44">
+        <v>0.05976898204641654</v>
+      </c>
+      <c r="E44">
+        <v>0.09627178025620753</v>
+      </c>
+      <c r="F44">
+        <v>-0.03533873575413714</v>
+      </c>
+      <c r="G44">
+        <v>-0.03107260527466629</v>
+      </c>
+      <c r="H44">
+        <v>-0.01514431444116403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0250179470717832</v>
+        <v>-0.03316370378017994</v>
       </c>
       <c r="C46">
-        <v>0.01437463711301272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.0112657176817228</v>
+      </c>
+      <c r="D46">
+        <v>0.03050054697628132</v>
+      </c>
+      <c r="E46">
+        <v>0.03167814712293674</v>
+      </c>
+      <c r="F46">
+        <v>-0.01366698864683872</v>
+      </c>
+      <c r="G46">
+        <v>-0.001575775883951173</v>
+      </c>
+      <c r="H46">
+        <v>-0.03635560844010072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0305664705958015</v>
+        <v>-0.03817411450538545</v>
       </c>
       <c r="C47">
-        <v>0.02507867680208328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01966093564859995</v>
+      </c>
+      <c r="D47">
+        <v>0.009451486436098191</v>
+      </c>
+      <c r="E47">
+        <v>0.0513476310847707</v>
+      </c>
+      <c r="F47">
+        <v>-0.005645881638693645</v>
+      </c>
+      <c r="G47">
+        <v>0.03800260713450376</v>
+      </c>
+      <c r="H47">
+        <v>-0.02595417717846991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03176949101054159</v>
+        <v>-0.03768108058365419</v>
       </c>
       <c r="C48">
-        <v>0.01677001839173364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01070671956345708</v>
+      </c>
+      <c r="D48">
+        <v>0.01833609349720703</v>
+      </c>
+      <c r="E48">
+        <v>0.04391064323115992</v>
+      </c>
+      <c r="F48">
+        <v>0.0009415503067118255</v>
+      </c>
+      <c r="G48">
+        <v>-0.009656367831885162</v>
+      </c>
+      <c r="H48">
+        <v>-0.0430392654118271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1631901085603246</v>
+        <v>-0.1903721056240986</v>
       </c>
       <c r="C49">
-        <v>0.06635460434701908</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03597853122750478</v>
+      </c>
+      <c r="D49">
+        <v>0.0316074802285207</v>
+      </c>
+      <c r="E49">
+        <v>-0.1423378158236904</v>
+      </c>
+      <c r="F49">
+        <v>-0.07336234961428068</v>
+      </c>
+      <c r="G49">
+        <v>0.06317257188655144</v>
+      </c>
+      <c r="H49">
+        <v>0.2432389161784998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03900929844099199</v>
+        <v>-0.04600877880838031</v>
       </c>
       <c r="C50">
-        <v>0.02420051111806401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01693823561386217</v>
+      </c>
+      <c r="D50">
+        <v>0.02887433935802248</v>
+      </c>
+      <c r="E50">
+        <v>0.05406140007417273</v>
+      </c>
+      <c r="F50">
+        <v>-0.008503674086952153</v>
+      </c>
+      <c r="G50">
+        <v>0.01998230921968012</v>
+      </c>
+      <c r="H50">
+        <v>-0.06121912816993137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02525169376473274</v>
+        <v>-0.02959401364326835</v>
       </c>
       <c r="C51">
-        <v>0.007107752454832186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.002491823310506896</v>
+      </c>
+      <c r="D51">
+        <v>0.01419321288526887</v>
+      </c>
+      <c r="E51">
+        <v>0.01509602005098146</v>
+      </c>
+      <c r="F51">
+        <v>-0.02073368941654397</v>
+      </c>
+      <c r="G51">
+        <v>-0.0005959249171903021</v>
+      </c>
+      <c r="H51">
+        <v>0.006121373747719624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1517325522516785</v>
+        <v>-0.1623705849041134</v>
       </c>
       <c r="C53">
-        <v>0.08338211255286536</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05387405200995703</v>
+      </c>
+      <c r="D53">
+        <v>0.01717680602379858</v>
+      </c>
+      <c r="E53">
+        <v>-0.02514807089866255</v>
+      </c>
+      <c r="F53">
+        <v>-0.02063626996856093</v>
+      </c>
+      <c r="G53">
+        <v>0.003626009366434552</v>
+      </c>
+      <c r="H53">
+        <v>-0.1653131535534662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05589726470033111</v>
+        <v>-0.05797029182174111</v>
       </c>
       <c r="C54">
-        <v>0.0250320956192275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01311765110944597</v>
+      </c>
+      <c r="D54">
+        <v>0.01550291029010358</v>
+      </c>
+      <c r="E54">
+        <v>0.05322525784995801</v>
+      </c>
+      <c r="F54">
+        <v>-0.00138121425940437</v>
+      </c>
+      <c r="G54">
+        <v>-0.01015839767137656</v>
+      </c>
+      <c r="H54">
+        <v>-0.05011180793355451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09930472253539668</v>
+        <v>-0.1031864275664445</v>
       </c>
       <c r="C55">
-        <v>0.05790221441219016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03592937815731326</v>
+      </c>
+      <c r="D55">
+        <v>0.02397296876168059</v>
+      </c>
+      <c r="E55">
+        <v>0.01913383305348416</v>
+      </c>
+      <c r="F55">
+        <v>-0.01425042912879997</v>
+      </c>
+      <c r="G55">
+        <v>-0.005042045480356367</v>
+      </c>
+      <c r="H55">
+        <v>-0.1458873418757548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1464172166817926</v>
+        <v>-0.1601391568878868</v>
       </c>
       <c r="C56">
-        <v>0.09576237506079742</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06595282596164245</v>
+      </c>
+      <c r="D56">
+        <v>0.01893664684679829</v>
+      </c>
+      <c r="E56">
+        <v>-0.02259144448998934</v>
+      </c>
+      <c r="F56">
+        <v>-0.03886858811441913</v>
+      </c>
+      <c r="G56">
+        <v>0.01168979307088404</v>
+      </c>
+      <c r="H56">
+        <v>-0.1702615653713627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1256913492769893</v>
+        <v>-0.09799584593237616</v>
       </c>
       <c r="C58">
-        <v>0.009627129486042841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03371077320444828</v>
+      </c>
+      <c r="D58">
+        <v>0.03737424747913594</v>
+      </c>
+      <c r="E58">
+        <v>0.1675299044220274</v>
+      </c>
+      <c r="F58">
+        <v>0.02203305907306183</v>
+      </c>
+      <c r="G58">
+        <v>0.06381713968791231</v>
+      </c>
+      <c r="H58">
+        <v>0.2277518740289083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1156461413969474</v>
+        <v>-0.1362197755320849</v>
       </c>
       <c r="C59">
-        <v>0.07912925426946647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.082850531630345</v>
+      </c>
+      <c r="D59">
+        <v>-0.3654649470626065</v>
+      </c>
+      <c r="E59">
+        <v>0.02315295935927273</v>
+      </c>
+      <c r="F59">
+        <v>-0.02044364926596631</v>
+      </c>
+      <c r="G59">
+        <v>0.03466579649081117</v>
+      </c>
+      <c r="H59">
+        <v>-0.00693783275931931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.203042612485995</v>
+        <v>-0.2322747941416365</v>
       </c>
       <c r="C60">
-        <v>0.108806361783618</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06988863598795401</v>
+      </c>
+      <c r="D60">
+        <v>0.03653844741400616</v>
+      </c>
+      <c r="E60">
+        <v>-0.09152718965245955</v>
+      </c>
+      <c r="F60">
+        <v>-0.0771384084327201</v>
+      </c>
+      <c r="G60">
+        <v>-0.02020895209448019</v>
+      </c>
+      <c r="H60">
+        <v>0.172832487724677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0784052194216745</v>
+        <v>-0.08808017630492759</v>
       </c>
       <c r="C61">
-        <v>0.05140941832590827</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03565719841516001</v>
+      </c>
+      <c r="D61">
+        <v>0.04287822002620265</v>
+      </c>
+      <c r="E61">
+        <v>0.0003540464304806921</v>
+      </c>
+      <c r="F61">
+        <v>-0.00469262195549872</v>
+      </c>
+      <c r="G61">
+        <v>9.051671160373094e-06</v>
+      </c>
+      <c r="H61">
+        <v>-0.07246143856265944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1278557359506708</v>
+        <v>-0.1391043853935454</v>
       </c>
       <c r="C62">
-        <v>0.06907553467094545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04311110025901038</v>
+      </c>
+      <c r="D62">
+        <v>0.02817912027490517</v>
+      </c>
+      <c r="E62">
+        <v>-0.05971708397866695</v>
+      </c>
+      <c r="F62">
+        <v>-0.02190248836654771</v>
+      </c>
+      <c r="G62">
+        <v>-0.02640071005452438</v>
+      </c>
+      <c r="H62">
+        <v>-0.1821555066291187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05066174307708431</v>
+        <v>-0.05035320029527091</v>
       </c>
       <c r="C63">
-        <v>0.02622447482597006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01393951957302726</v>
+      </c>
+      <c r="D63">
+        <v>0.01963699880382533</v>
+      </c>
+      <c r="E63">
+        <v>0.05247064916395715</v>
+      </c>
+      <c r="F63">
+        <v>0.0152554279895414</v>
+      </c>
+      <c r="G63">
+        <v>-0.02913424858617482</v>
+      </c>
+      <c r="H63">
+        <v>-0.05694105531446148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1049378291897458</v>
+        <v>-0.1086799546682016</v>
       </c>
       <c r="C64">
-        <v>0.02587205538398414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004378563174806737</v>
+      </c>
+      <c r="D64">
+        <v>0.04044887834089302</v>
+      </c>
+      <c r="E64">
+        <v>0.04735013428422587</v>
+      </c>
+      <c r="F64">
+        <v>-0.04001353639094433</v>
+      </c>
+      <c r="G64">
+        <v>-0.04936371818402028</v>
+      </c>
+      <c r="H64">
+        <v>-0.05482192790419304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1206991065101619</v>
+        <v>-0.1270314790016301</v>
       </c>
       <c r="C65">
-        <v>0.06398156418089546</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04062607383383292</v>
+      </c>
+      <c r="D65">
+        <v>-0.001470359051688549</v>
+      </c>
+      <c r="E65">
+        <v>0.0119131513916675</v>
+      </c>
+      <c r="F65">
+        <v>-0.06207924568640533</v>
+      </c>
+      <c r="G65">
+        <v>-0.0532128616042462</v>
+      </c>
+      <c r="H65">
+        <v>0.1415504639845836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1406433201536362</v>
+        <v>-0.1538023202015437</v>
       </c>
       <c r="C66">
-        <v>0.07733568405206546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04633281173548581</v>
+      </c>
+      <c r="D66">
+        <v>0.1012880779443377</v>
+      </c>
+      <c r="E66">
+        <v>-0.02625224961055691</v>
+      </c>
+      <c r="F66">
+        <v>-0.01782692564310387</v>
+      </c>
+      <c r="G66">
+        <v>-0.04297000800335617</v>
+      </c>
+      <c r="H66">
+        <v>-0.1413781177481903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07188626557034285</v>
+        <v>-0.08336040566932103</v>
       </c>
       <c r="C67">
-        <v>0.014481748540011</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004415738294442736</v>
+      </c>
+      <c r="D67">
+        <v>0.02984095480111658</v>
+      </c>
+      <c r="E67">
+        <v>0.02623172013655927</v>
+      </c>
+      <c r="F67">
+        <v>-0.01357993802039472</v>
+      </c>
+      <c r="G67">
+        <v>0.006448841655937988</v>
+      </c>
+      <c r="H67">
+        <v>-0.02881938475479735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0577761599626483</v>
+        <v>-0.05765399228780472</v>
       </c>
       <c r="C68">
-        <v>0.05114632272404091</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05525956188032872</v>
+      </c>
+      <c r="D68">
+        <v>-0.2707149284632908</v>
+      </c>
+      <c r="E68">
+        <v>0.03651564784294379</v>
+      </c>
+      <c r="F68">
+        <v>-0.01673895324447877</v>
+      </c>
+      <c r="G68">
+        <v>0.01558127091408062</v>
+      </c>
+      <c r="H68">
+        <v>-0.0072597972131269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05319824526046015</v>
+        <v>-0.05325425673292085</v>
       </c>
       <c r="C69">
-        <v>0.01899551145316665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005302458977940398</v>
+      </c>
+      <c r="D69">
+        <v>0.01593018620470411</v>
+      </c>
+      <c r="E69">
+        <v>0.02497820203030156</v>
+      </c>
+      <c r="F69">
+        <v>0.01027693835805058</v>
+      </c>
+      <c r="G69">
+        <v>0.01432503447771639</v>
+      </c>
+      <c r="H69">
+        <v>-0.05370602265062701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005763766697611866</v>
+        <v>-0.02646866119554815</v>
       </c>
       <c r="C70">
-        <v>-0.003731255157778236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001254250440318148</v>
+      </c>
+      <c r="D70">
+        <v>0.001991286855565956</v>
+      </c>
+      <c r="E70">
+        <v>-0.02452009003599816</v>
+      </c>
+      <c r="F70">
+        <v>-0.03020019144880804</v>
+      </c>
+      <c r="G70">
+        <v>0.02033101610833009</v>
+      </c>
+      <c r="H70">
+        <v>0.04662016775486088</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05706919067369809</v>
+        <v>-0.05972982525281095</v>
       </c>
       <c r="C71">
-        <v>0.05022935608255017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05793540628228054</v>
+      </c>
+      <c r="D71">
+        <v>-0.2950189220518891</v>
+      </c>
+      <c r="E71">
+        <v>0.03399188104909193</v>
+      </c>
+      <c r="F71">
+        <v>-0.04258784908496214</v>
+      </c>
+      <c r="G71">
+        <v>0.005147029633629464</v>
+      </c>
+      <c r="H71">
+        <v>-0.01387288734048208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1380192924950437</v>
+        <v>-0.1477535653213485</v>
       </c>
       <c r="C72">
-        <v>0.06627041790801742</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03800742090244209</v>
+      </c>
+      <c r="D72">
+        <v>-0.01302797127665828</v>
+      </c>
+      <c r="E72">
+        <v>-0.1228971188229047</v>
+      </c>
+      <c r="F72">
+        <v>0.1504402973347984</v>
+      </c>
+      <c r="G72">
+        <v>-0.1143820207741989</v>
+      </c>
+      <c r="H72">
+        <v>-0.02691517048623353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2727043505112889</v>
+        <v>-0.2882156752837722</v>
       </c>
       <c r="C73">
-        <v>0.1169939370692384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.04871694748276392</v>
+      </c>
+      <c r="D73">
+        <v>0.09980100391258896</v>
+      </c>
+      <c r="E73">
+        <v>-0.2130046746344567</v>
+      </c>
+      <c r="F73">
+        <v>-0.1213084754701249</v>
+      </c>
+      <c r="G73">
+        <v>0.1812862222746219</v>
+      </c>
+      <c r="H73">
+        <v>0.465045283369531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07900143465592899</v>
+        <v>-0.09211852086462613</v>
       </c>
       <c r="C74">
-        <v>0.07958566778743091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06029571684701166</v>
+      </c>
+      <c r="D74">
+        <v>0.03185901843696556</v>
+      </c>
+      <c r="E74">
+        <v>-0.004613005072484781</v>
+      </c>
+      <c r="F74">
+        <v>0.007669104386075212</v>
+      </c>
+      <c r="G74">
+        <v>0.04115845127328239</v>
+      </c>
+      <c r="H74">
+        <v>-0.1196851441414971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.0937279750046689</v>
+        <v>-0.09976313974076195</v>
       </c>
       <c r="C75">
-        <v>0.05626738494934535</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02996231188459719</v>
+      </c>
+      <c r="D75">
+        <v>0.01379223131020924</v>
+      </c>
+      <c r="E75">
+        <v>0.01104367494189611</v>
+      </c>
+      <c r="F75">
+        <v>-0.02772028971205032</v>
+      </c>
+      <c r="G75">
+        <v>0.01338178421035815</v>
+      </c>
+      <c r="H75">
+        <v>-0.1127797709757309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1294356309849779</v>
+        <v>-0.1395002555659236</v>
       </c>
       <c r="C76">
-        <v>0.08573804601158411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05662566227471575</v>
+      </c>
+      <c r="D76">
+        <v>0.04994338881410714</v>
+      </c>
+      <c r="E76">
+        <v>0.03474064080802768</v>
+      </c>
+      <c r="F76">
+        <v>-0.04460379793514393</v>
+      </c>
+      <c r="G76">
+        <v>-0.005495058284265243</v>
+      </c>
+      <c r="H76">
+        <v>-0.1786479970791981</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1143997013032051</v>
+        <v>-0.1112968390108836</v>
       </c>
       <c r="C77">
-        <v>0.02351114363989599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.002378231500662375</v>
+      </c>
+      <c r="D77">
+        <v>0.02014511403540532</v>
+      </c>
+      <c r="E77">
+        <v>0.02412456502253755</v>
+      </c>
+      <c r="F77">
+        <v>-0.1323452354776164</v>
+      </c>
+      <c r="G77">
+        <v>-0.8849053433953614</v>
+      </c>
+      <c r="H77">
+        <v>0.177162839056979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09903762064859319</v>
+        <v>-0.1392058961245345</v>
       </c>
       <c r="C78">
-        <v>0.04142389887453425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03315024055322597</v>
+      </c>
+      <c r="D78">
+        <v>0.09015911530308254</v>
+      </c>
+      <c r="E78">
+        <v>0.05731526313335743</v>
+      </c>
+      <c r="F78">
+        <v>-0.03150462903014851</v>
+      </c>
+      <c r="G78">
+        <v>-0.07043738481966437</v>
+      </c>
+      <c r="H78">
+        <v>0.04349667070440393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.146104705118888</v>
+        <v>-0.1518054558588002</v>
       </c>
       <c r="C79">
-        <v>0.08247364580956866</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04649833836492748</v>
+      </c>
+      <c r="D79">
+        <v>0.0262383488940687</v>
+      </c>
+      <c r="E79">
+        <v>-0.01246090866717482</v>
+      </c>
+      <c r="F79">
+        <v>-0.01945205204524827</v>
+      </c>
+      <c r="G79">
+        <v>0.01874095011099083</v>
+      </c>
+      <c r="H79">
+        <v>-0.1768927519439628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04530356401421937</v>
+        <v>-0.04303812673525401</v>
       </c>
       <c r="C80">
-        <v>0.01655038947512189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006152370581718788</v>
+      </c>
+      <c r="D80">
+        <v>0.01887700603115866</v>
+      </c>
+      <c r="E80">
+        <v>-0.007166517189581593</v>
+      </c>
+      <c r="F80">
+        <v>0.00551962103077445</v>
+      </c>
+      <c r="G80">
+        <v>0.03523894608916699</v>
+      </c>
+      <c r="H80">
+        <v>-0.04052714224196396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1142464144560355</v>
+        <v>-0.1198994169588675</v>
       </c>
       <c r="C81">
-        <v>0.06608472861485827</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03763425926916895</v>
+      </c>
+      <c r="D81">
+        <v>0.02226980177048577</v>
+      </c>
+      <c r="E81">
+        <v>0.0294217485370994</v>
+      </c>
+      <c r="F81">
+        <v>-0.01348154729957957</v>
+      </c>
+      <c r="G81">
+        <v>0.04570795550660634</v>
+      </c>
+      <c r="H81">
+        <v>-0.1485728017957297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1302948282162232</v>
+        <v>-0.1311564630966451</v>
       </c>
       <c r="C82">
-        <v>0.08175065441758074</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05041697521723315</v>
+      </c>
+      <c r="D82">
+        <v>0.02742553468688918</v>
+      </c>
+      <c r="E82">
+        <v>-0.00626943218081819</v>
+      </c>
+      <c r="F82">
+        <v>-0.05824236537217904</v>
+      </c>
+      <c r="G82">
+        <v>0.03167050452329189</v>
+      </c>
+      <c r="H82">
+        <v>-0.2025214172055363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07939163357827526</v>
+        <v>-0.08825148529847396</v>
       </c>
       <c r="C83">
-        <v>-0.003220403292257642</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.02027737104467172</v>
+      </c>
+      <c r="D83">
+        <v>0.03709016339181836</v>
+      </c>
+      <c r="E83">
+        <v>0.02675953079668411</v>
+      </c>
+      <c r="F83">
+        <v>-0.05409911067856871</v>
+      </c>
+      <c r="G83">
+        <v>0.08481860534363483</v>
+      </c>
+      <c r="H83">
+        <v>0.05653380153835131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02818010683600263</v>
+        <v>-0.037096662411975</v>
       </c>
       <c r="C84">
-        <v>0.02515244763701461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01926497080625959</v>
+      </c>
+      <c r="D84">
+        <v>0.02970002534295211</v>
+      </c>
+      <c r="E84">
+        <v>0.01916570632532542</v>
+      </c>
+      <c r="F84">
+        <v>0.05756006230033602</v>
+      </c>
+      <c r="G84">
+        <v>0.06670873407251601</v>
+      </c>
+      <c r="H84">
+        <v>-0.008569633117229598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1186357176688189</v>
+        <v>-0.119803590446388</v>
       </c>
       <c r="C85">
-        <v>0.06337411572537288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.0323676121064202</v>
+      </c>
+      <c r="D85">
+        <v>0.02398795148806689</v>
+      </c>
+      <c r="E85">
+        <v>0.02396175646123825</v>
+      </c>
+      <c r="F85">
+        <v>-0.03988010555984581</v>
+      </c>
+      <c r="G85">
+        <v>0.01231687788060877</v>
+      </c>
+      <c r="H85">
+        <v>-0.1510266513484186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04945469664782676</v>
+        <v>-0.05788992685818863</v>
       </c>
       <c r="C86">
-        <v>0.02924181940283724</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.0187474124779206</v>
+      </c>
+      <c r="D86">
+        <v>0.02419686820446107</v>
+      </c>
+      <c r="E86">
+        <v>0.06546432012055782</v>
+      </c>
+      <c r="F86">
+        <v>-0.02280788435839514</v>
+      </c>
+      <c r="G86">
+        <v>0.01823185502197009</v>
+      </c>
+      <c r="H86">
+        <v>0.003391038117741573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1213652871186781</v>
+        <v>-0.1227412968339271</v>
       </c>
       <c r="C87">
-        <v>0.07143491126833</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03597140481652961</v>
+      </c>
+      <c r="D87">
+        <v>0.07533598210768125</v>
+      </c>
+      <c r="E87">
+        <v>0.02115512179978202</v>
+      </c>
+      <c r="F87">
+        <v>0.006672495253249616</v>
+      </c>
+      <c r="G87">
+        <v>-0.1114612123453514</v>
+      </c>
+      <c r="H87">
+        <v>0.03497155411068577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05276344153039209</v>
+        <v>-0.0601280378573787</v>
       </c>
       <c r="C88">
-        <v>0.02989588162266637</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01898953546098047</v>
+      </c>
+      <c r="D88">
+        <v>0.02876099173394217</v>
+      </c>
+      <c r="E88">
+        <v>0.02171007747266204</v>
+      </c>
+      <c r="F88">
+        <v>-0.006191483104122091</v>
+      </c>
+      <c r="G88">
+        <v>-0.008593410548125116</v>
+      </c>
+      <c r="H88">
+        <v>-0.05098781236662187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.07926119168939555</v>
+        <v>-0.09158640493794314</v>
       </c>
       <c r="C89">
-        <v>0.0676674993494266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07623114406251343</v>
+      </c>
+      <c r="D89">
+        <v>-0.3446379098552684</v>
+      </c>
+      <c r="E89">
+        <v>0.07319052917412994</v>
+      </c>
+      <c r="F89">
+        <v>-0.08090614270071432</v>
+      </c>
+      <c r="G89">
+        <v>0.019667676759167</v>
+      </c>
+      <c r="H89">
+        <v>-0.006298186702026206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07170511651414771</v>
+        <v>-0.07851466312906055</v>
       </c>
       <c r="C90">
-        <v>0.05979763480923301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06556455727098996</v>
+      </c>
+      <c r="D90">
+        <v>-0.3116492417662017</v>
+      </c>
+      <c r="E90">
+        <v>0.06051830360616468</v>
+      </c>
+      <c r="F90">
+        <v>-0.002714470530226531</v>
+      </c>
+      <c r="G90">
+        <v>0.004347813000352357</v>
+      </c>
+      <c r="H90">
+        <v>-0.007711221454183016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08382831429263884</v>
+        <v>-0.08940810627365359</v>
       </c>
       <c r="C91">
-        <v>0.05530079183195782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03374082137929374</v>
+      </c>
+      <c r="D91">
+        <v>0.03039644017912971</v>
+      </c>
+      <c r="E91">
+        <v>0.01676083730952562</v>
+      </c>
+      <c r="F91">
+        <v>-0.003402612619414732</v>
+      </c>
+      <c r="G91">
+        <v>0.05225483057967396</v>
+      </c>
+      <c r="H91">
+        <v>-0.07938484337502633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07256350494144251</v>
+        <v>-0.0791780969323118</v>
       </c>
       <c r="C92">
-        <v>0.07207526681377643</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.07796693059904924</v>
+      </c>
+      <c r="D92">
+        <v>-0.3420481709344828</v>
+      </c>
+      <c r="E92">
+        <v>0.04555850359583009</v>
+      </c>
+      <c r="F92">
+        <v>-0.04019969319601037</v>
+      </c>
+      <c r="G92">
+        <v>-0.007607000302321193</v>
+      </c>
+      <c r="H92">
+        <v>-0.026332961011687</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06415862141855662</v>
+        <v>-0.07632576754536398</v>
       </c>
       <c r="C93">
-        <v>0.06476035648905272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07631826280176651</v>
+      </c>
+      <c r="D93">
+        <v>-0.3077955299851519</v>
+      </c>
+      <c r="E93">
+        <v>0.03824276900562613</v>
+      </c>
+      <c r="F93">
+        <v>-0.03974324944756054</v>
+      </c>
+      <c r="G93">
+        <v>-0.01000361862830068</v>
+      </c>
+      <c r="H93">
+        <v>0.01069289804258351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1323331209226557</v>
+        <v>-0.1265832185122425</v>
       </c>
       <c r="C94">
-        <v>0.06076668607365307</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02341301016535149</v>
+      </c>
+      <c r="D94">
+        <v>0.04737815664089787</v>
+      </c>
+      <c r="E94">
+        <v>-0.001135703595623171</v>
+      </c>
+      <c r="F94">
+        <v>-0.02043346161194412</v>
+      </c>
+      <c r="G94">
+        <v>0.05121950130215611</v>
+      </c>
+      <c r="H94">
+        <v>-0.09965316737458134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.119195432635783</v>
+        <v>-0.1289193233430574</v>
       </c>
       <c r="C95">
-        <v>0.03612722930902958</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.008530848347925873</v>
+      </c>
+      <c r="D95">
+        <v>0.06240162945384603</v>
+      </c>
+      <c r="E95">
+        <v>0.0132905780048336</v>
+      </c>
+      <c r="F95">
+        <v>-0.04511257245424297</v>
+      </c>
+      <c r="G95">
+        <v>0.01202970485467132</v>
+      </c>
+      <c r="H95">
+        <v>0.03457754403266185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.202601451339005</v>
+        <v>-0.2093287667444788</v>
       </c>
       <c r="C97">
-        <v>0.04546770092674118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.005313951405617436</v>
+      </c>
+      <c r="D97">
+        <v>-0.09562827489919844</v>
+      </c>
+      <c r="E97">
+        <v>-0.3424196789206777</v>
+      </c>
+      <c r="F97">
+        <v>0.8537007965183957</v>
+      </c>
+      <c r="G97">
+        <v>-0.09251442224483923</v>
+      </c>
+      <c r="H97">
+        <v>-0.008494986662870426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2438382181834979</v>
+        <v>-0.2750118309945243</v>
       </c>
       <c r="C98">
-        <v>0.08040682755482834</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03522648014105245</v>
+      </c>
+      <c r="D98">
+        <v>0.06011525033394301</v>
+      </c>
+      <c r="E98">
+        <v>-0.1650820302525966</v>
+      </c>
+      <c r="F98">
+        <v>-0.08683580086314209</v>
+      </c>
+      <c r="G98">
+        <v>0.2682172485317765</v>
+      </c>
+      <c r="H98">
+        <v>0.2361297611830684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4644249142893824</v>
+        <v>-0.2852754074222085</v>
       </c>
       <c r="C99">
-        <v>-0.8701526753492262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9365395079537754</v>
+      </c>
+      <c r="D99">
+        <v>-0.1228668149570011</v>
+      </c>
+      <c r="E99">
+        <v>0.06371151647209886</v>
+      </c>
+      <c r="F99">
+        <v>-0.04347422176283387</v>
+      </c>
+      <c r="G99">
+        <v>0.01219739083462481</v>
+      </c>
+      <c r="H99">
+        <v>-0.06618932507739775</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03971076804023238</v>
+        <v>-0.04795476528222388</v>
       </c>
       <c r="C101">
-        <v>0.03094209482559603</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.025469169217869</v>
+      </c>
+      <c r="D101">
+        <v>0.006090429412196491</v>
+      </c>
+      <c r="E101">
+        <v>0.05674027475781267</v>
+      </c>
+      <c r="F101">
+        <v>0.003859645268868494</v>
+      </c>
+      <c r="G101">
+        <v>0.005802825266520736</v>
+      </c>
+      <c r="H101">
+        <v>-0.07828834921541906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
